--- a/Demands.xlsx
+++ b/Demands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sven1/Documents/Arbeit/CloudComputing/Übung1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Documents\TH\7. Semester\CldComp\cnc-uebung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9875CA-3ECE-2041-A660-DEEBD7AF4B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43FA1D-8277-453E-B673-8C23C0F602DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26660" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Service 1</t>
   </si>
@@ -58,12 +58,100 @@
   <si>
     <t>Service 7</t>
   </si>
+  <si>
+    <t>Einmaliger
+Workload</t>
+  </si>
+  <si>
+    <t>Kontinuierlich
+fallend</t>
+  </si>
+  <si>
+    <t>Kontinuierlich
+wachsend</t>
+  </si>
+  <si>
+    <t>Zufälliger
+Workload</t>
+  </si>
+  <si>
+    <t>Statischer
+Workload</t>
+  </si>
+  <si>
+    <t>Periodischer
+Workload</t>
+  </si>
+  <si>
+    <t>Gauß'sche
+Verteilung</t>
+  </si>
+  <si>
+    <t>Peak-to-Av.</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>h)</t>
+  </si>
+  <si>
+    <t>i)</t>
+  </si>
+  <si>
+    <t>Anbieter</t>
+  </si>
+  <si>
+    <t>c(IaaS)</t>
+  </si>
+  <si>
+    <t>c(PaaS)</t>
+  </si>
+  <si>
+    <t>c(SaaS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +161,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,10 +224,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -134,6 +271,1595 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Workloads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-24AD-4224-85DD-CE027B46615F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1088933999"/>
+        <c:axId val="1088920559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1088933999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088920559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088920559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088933999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31D0F8A-188F-838A-D1DC-F489526A150A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,499 +2125,1828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="11" width="11.5703125" style="3"/>
+    <col min="12" max="12" width="16.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>7</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>9</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>9</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>11</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>13</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>9</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>11</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>9</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>7</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>13</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
         <v>7</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="7">
         <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <f>MAX(B2:B21)</f>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:H26" si="0">MAX(C2:C21)</f>
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <f>AVERAGE(B2:B21)</f>
+        <v>9.1</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:H27" si="1">AVERAGE(C2:C21)</f>
+        <v>6.75</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <f>(B26/B27)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:H28" si="2">(C26/C27)</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6071428571428572</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9213483146067416</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1848739495798317</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9">
+        <f>B$28</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31:J31" si="3">C$28</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6071428571428572</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9213483146067416</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="3"/>
+        <v>2.1848739495798317</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f>IF((($B32/$C32)&lt;D$31),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f>IF((($B32/$C32)&lt;E$31),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" ref="E32:J40" si="4">IF((($B32/$C32)&lt;F$31),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" ref="D33:D40" si="5">IF((($B33/$C33)&lt;D$31),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Nein</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Nein</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Ja</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Ja</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Nein</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="5">
+        <v>19</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Nein</v>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Ja</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="5">
+        <v>20</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Nein</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" ref="D44" si="6">B$28</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E44" s="9">
+        <f>C$28</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" ref="F44" si="7">D$28</f>
+        <v>1.6071428571428572</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" ref="G44" si="8">E$28</f>
+        <v>20</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" ref="H44" si="9">F$28</f>
+        <v>2.9213483146067416</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" ref="I44" si="10">G$28</f>
+        <v>2.1848739495798317</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" ref="J44" si="11">H$28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f>IF((($B46/$C46)&lt;D$44),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f t="shared" ref="E46:J51" si="12">IF((($B46/$C46)&lt;E$44),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" ref="D47:D51" si="13">IF((($B47/$C47)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+      <c r="I47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Ja</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Ja</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Ja</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Ja</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f>IF((($B54/$C54)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" ref="E54:J59" si="14">IF((($B54/$C54)&lt;E$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" ref="D55:D59" si="15">IF((($B55/$C55)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="I55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Ja</v>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Ja</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Ja</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f>IF((($B58/$C58)&lt;F$44),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>Ja</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f>IF((($B62/$C62)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" ref="E62:J67" si="16">IF((($B62/$C62)&lt;E$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="I62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" ref="D63:D67" si="17">IF((($B63/$C63)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="I63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Ja</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="I64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Nein</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="I65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Ja</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Ja</v>
+      </c>
+      <c r="E67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="I67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Demands.xlsx
+++ b/Demands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Documents\TH\7. Semester\CldComp\cnc-uebung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43FA1D-8277-453E-B673-8C23C0F602DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257AE419-7296-4E07-B5A7-8C9DBABE1BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2125,23 +2125,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="11" width="11.5703125" style="3"/>
-    <col min="12" max="12" width="16.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="11" width="11.5546875" style="3"/>
+    <col min="12" max="12" width="16.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>3</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>4</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>5</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>7</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>7</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>9</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>10</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>11</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>12</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>12</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>13</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>13</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>13</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>13</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D30" s="8" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>26</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>27</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>28</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>29</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D43" s="8" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -3225,27 +3225,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f>IF((($B45/$C45)&lt;D$44),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ref="E45:J50" si="12">IF((($B45/$C45)&lt;E$44),"Ja","Nein")</f>
+        <v>Ja</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Ja</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>IF((($B46/$C46)&lt;D$44),"Ja","Nein")</f>
-        <v>Ja</v>
+        <f t="shared" ref="D46:D50" si="13">IF((($B46/$C46)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" ref="E46:J51" si="12">IF((($B46/$C46)&lt;E$44),"Ja","Nein")</f>
-        <v>Ja</v>
+        <f t="shared" si="12"/>
+        <v>Nein</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="12"/>
@@ -3253,38 +3292,38 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="I46" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="12"/>
         <v>Nein</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" ref="D47:D51" si="13">IF((($B47/$C47)&lt;D$44),"Ja","Nein")</f>
-        <v>Nein</v>
+        <f t="shared" si="13"/>
+        <v>Ja</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="12"/>
@@ -3292,20 +3331,20 @@
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="I47" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" si="12"/>
         <v>Nein</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -3342,12 +3381,12 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -3378,12 +3417,12 @@
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>Nein</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>0.8</v>
@@ -3420,69 +3459,69 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>6</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>Ja</v>
-      </c>
-      <c r="E51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-      <c r="F51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-      <c r="G51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-      <c r="I51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-      <c r="J51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>Ja</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f>IF((($B53/$C53)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f t="shared" ref="E53:J58" si="14">IF((($B53/$C53)&lt;E$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="I53" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Ja</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>IF((($B54/$C54)&lt;D$44),"Ja","Nein")</f>
+        <f t="shared" ref="D54:D58" si="15">IF((($B54/$C54)&lt;D$44),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" ref="E54:J59" si="14">IF((($B54/$C54)&lt;E$44),"Ja","Nein")</f>
+        <f t="shared" si="14"/>
         <v>Nein</v>
       </c>
       <c r="F54" s="3" t="str">
@@ -3495,38 +3534,38 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="J54" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Nein</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" ref="D55:D59" si="15">IF((($B55/$C55)&lt;D$44),"Ja","Nein")</f>
-        <v>Nein</v>
+        <f t="shared" si="15"/>
+        <v>Ja</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="14"/>
@@ -3534,23 +3573,23 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="J55" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Nein</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -3584,12 +3623,12 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -3603,7 +3642,7 @@
         <v>Ja</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>IF((($B57/$C57)&lt;F$44),"Ja","Nein")</f>
         <v>Ja</v>
       </c>
       <c r="G57" s="3" t="str">
@@ -3623,12 +3662,12 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -3642,7 +3681,7 @@
         <v>Ja</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f>IF((($B58/$C58)&lt;F$44),"Ja","Nein")</f>
+        <f t="shared" si="14"/>
         <v>Ja</v>
       </c>
       <c r="G58" s="3" t="str">
@@ -3659,73 +3698,73 @@
       </c>
       <c r="J58" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>Nein</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>Ja</v>
-      </c>
-      <c r="E59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-      <c r="F59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-      <c r="G59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-      <c r="H59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-      <c r="I59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-      <c r="J59" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>Ja</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="10" t="s">
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f>IF((($B61/$C61)&lt;D$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f t="shared" ref="E61:J66" si="16">IF((($B61/$C61)&lt;E$44),"Ja","Nein")</f>
+        <v>Nein</v>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Ja</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="I61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>IF((($B62/$C62)&lt;D$44),"Ja","Nein")</f>
+        <f t="shared" ref="D62:D66" si="17">IF((($B62/$C62)&lt;D$44),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f t="shared" ref="E62:J67" si="16">IF((($B62/$C62)&lt;E$44),"Ja","Nein")</f>
+        <f t="shared" si="16"/>
         <v>Nein</v>
       </c>
       <c r="F62" s="3" t="str">
@@ -3749,27 +3788,27 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" ref="D63:D67" si="17">IF((($B63/$C63)&lt;D$44),"Ja","Nein")</f>
-        <v>Nein</v>
+        <f t="shared" si="17"/>
+        <v>Ja</v>
       </c>
       <c r="E63" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="16"/>
@@ -3777,38 +3816,38 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="J63" s="3" t="str">
         <f t="shared" si="16"/>
         <v>Nein</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="E64" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="16"/>
@@ -3827,27 +3866,27 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="E65" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="16"/>
@@ -3866,12 +3905,12 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -3901,45 +3940,6 @@
         <v>Ja</v>
       </c>
       <c r="J66" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Nein</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>6</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>Ja</v>
-      </c>
-      <c r="E67" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Ja</v>
-      </c>
-      <c r="F67" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Ja</v>
-      </c>
-      <c r="G67" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Ja</v>
-      </c>
-      <c r="H67" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Ja</v>
-      </c>
-      <c r="I67" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>Ja</v>
-      </c>
-      <c r="J67" s="3" t="str">
         <f t="shared" si="16"/>
         <v>Nein</v>
       </c>
